--- a/download/generated situation/état_des_virements_xlsx/état_des_virements_2_2022.xlsx
+++ b/download/generated situation/état_des_virements_xlsx/état_des_virements_2_2022.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -587,9 +587,44 @@
         <v>45500</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>VAVA VAVA</v>
+      </c>
+      <c r="B7" t="str">
+        <v>P3566465</v>
+      </c>
+      <c r="C7" t="str">
+        <v>316545684616549646165496</v>
+      </c>
+      <c r="D7" t="str">
+        <v/>
+      </c>
+      <c r="E7" t="str">
+        <v>BMCE</v>
+      </c>
+      <c r="F7" t="str">
+        <v>Point de vente</v>
+      </c>
+      <c r="G7" t="str">
+        <v>501/BIRANZARAN</v>
+      </c>
+      <c r="H7" t="str">
+        <v>trimestrielle</v>
+      </c>
+      <c r="I7">
+        <v>90000</v>
+      </c>
+      <c r="J7">
+        <v>9000</v>
+      </c>
+      <c r="K7">
+        <v>81000</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K6"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K7"/>
   </ignoredErrors>
 </worksheet>
 </file>